--- a/biology/Zoologie/Hyliota/Hyliota.xlsx
+++ b/biology/Zoologie/Hyliota/Hyliota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyliotidae
 Hyliota, unique représentant de la famille des Hyliotidae (ou hyliotidés en français), est un genre de passereaux communément appelés hyliotes.
@@ -512,18 +524,20 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 11.1, 2021)[1] :
-Hyliota flavigaster Swainson, 1837 – Hyliote à ventre jaune[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 11.1, 2021) :
+Hyliota flavigaster Swainson, 1837 – Hyliote à ventre jaune
 sous-espèce Hyliota flavigaster flavigaster Swainson, 1837
 sous-espèce Hyliota flavigaster barbozae Hartlaub, 1883
-Hyliota australis Shelley, 1882 – Hyliote australe[2]
+Hyliota australis Shelley, 1882 – Hyliote australe
 sous-espèce Hyliota australis slatini Sassi, 1914
 sous-espèce Hyliota australis inornata Vincent, 1933
 sous-espèce Hyliota australis australis Shelley, 1882
 Hyliota usambara Sclater, WL, 1932 – Hyliote des Usambara
-Hyliota violacea Verreaux, J &amp; Verreaux, É, 1851 – Hyliote à dos violet[2]
+Hyliota violacea Verreaux, J &amp; Verreaux, É, 1851 – Hyliote à dos violet
 sous-espèce Hyliota violacea nehrkorni Hartlaub, 1892
 sous-espèce Hyliota violacea violacea Verreaux, J &amp; Verreaux, É, 1851</t>
         </is>
